--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_go\src\goe2m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1375AF-492C-4334-8F75-99386AA5ED03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0BE7FC-A573-40F3-9CB6-7A94262A3CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-6270" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,32 +957,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生产订单主表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>I_ManufactOrderStyle</t>
   </si>
   <si>
     <t>I_ManufactOrderMain</t>
+  </si>
+  <si>
+    <t>生产订单主表(I_ManufactOrderMain)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_ManufactOrderAppend</t>
+  </si>
+  <si>
+    <t>生产订单主表-附加表(I_ManufactOrderAppend)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产订单货品明细表(I_ManufactOrderStyle)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ManufactOrderMain</t>
-  </si>
-  <si>
-    <t>生产订单主表-附加表</t>
-  </si>
-  <si>
-    <t>I_ManufactOrderAppend</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ManufactOrderAppend</t>
-  </si>
-  <si>
-    <t>生产订单货品明细表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I_ManufactOrderStyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ManufactOrderStyle</t>
@@ -1517,7 +1518,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1530,13 +1531,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
         <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1905,13 +1906,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" t="s">
         <v>226</v>
       </c>
-      <c r="B31" t="s">
-        <v>227</v>
-      </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -2181,10 +2182,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
         <v>231</v>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_go\src\goe2m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0BE7FC-A573-40F3-9CB6-7A94262A3CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC6BDF6-D7A0-4438-BAAC-E548EF8FAE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-6270" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="233">
   <si>
     <t>Varchar(200)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -987,6 +987,10 @@
   </si>
   <si>
     <t>ManufactOrderStyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char(36)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1518,7 +1522,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1562,7 +1566,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="D3" s="12"/>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_go\src\goe2m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC6BDF6-D7A0-4438-BAAC-E548EF8FAE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E2F82-1254-4724-A053-9DF18AF98339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6270" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="205">
   <si>
     <t>Varchar(200)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一般销售、代理、加工、样板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>付款方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
   </si>
   <si>
     <t>系统字段（补充财务结算）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与销售订单主表采用相同主键值关联</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -268,18 +260,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用于显示排列顺序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>相关样板编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到样品资料主表记录主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户订单号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,10 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在多价格情况下，自动计算生成并自动替换打印在订单单价栏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数量单价单位折算率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,47 +300,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0-统一单价，取本表单价为单价；1-按颜色区分单价，2-按尺码区分价格，3-按颜色尺码区分价格；单价由销售《订单颜色/尺码价格分配表》给出，分配表中无对应记录的，按缺省单价计算；同时计算平均单价，填写到平均单价栏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>多货期标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0-表示无货期分拆的情况，直接取记录单价为单价；&gt;0-则表示分货期情况；需要处理分配数量汇总，及平均单价计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>分货期货品关联标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到本表相应的货品记录索引主键，如果非分货期设置，则该字段为空值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>送货地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>由客户相关单位选择或编写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>运输方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到系统运输方式标准代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>指定尺码分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联选择到订单货品尺码描述表主键</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -418,10 +374,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到生产订单主表主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RecnoPk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,26 +425,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到系统价格条款表主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PayMethod</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到系统付款方式表主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Currency</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到系统币别表主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SumAmount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -509,15 +449,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到系统公司部门表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DutyUser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联到系统用户表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -786,37 +718,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>类别/需求用量</t>
-  </si>
-  <si>
     <t>Varchar(180)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>货品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细规格说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MaterialId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到销售订单主表MP_I_SaleContractMain销售订单编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SupplierId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到系统客户/供应商资料表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CustomId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -833,10 +746,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统用，配合系统统一信息安全访问控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计入库批次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -861,10 +770,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生产入库单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计入库数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -873,10 +778,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>仓库确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计退货批次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -893,10 +794,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生产退货单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计退货数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -909,15 +806,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关联到销售订单主表MP_I_SaleContractMain主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>订单原料/货品标识号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联到：销售订单货品、原料总表（系统用于自动生成订单物流供应链,不显示）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1522,7 +1411,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1535,13 +1424,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1563,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D3" s="12"/>
     </row>
@@ -1575,10 +1464,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D4" s="14"/>
     </row>
@@ -1587,87 +1476,79 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="44.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>187</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
@@ -1676,36 +1557,34 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>187</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
@@ -1717,10 +1596,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15" s="14"/>
     </row>
@@ -1729,52 +1608,46 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>108</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -1783,52 +1656,46 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>113</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>192</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D23" s="14"/>
     </row>
@@ -1837,13 +1704,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -1851,10 +1718,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>30</v>
@@ -1865,10 +1732,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>30</v>
@@ -1879,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>30</v>
@@ -1893,10 +1760,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>30</v>
@@ -1910,13 +1777,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="28" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -1939,180 +1806,178 @@
         <v>34</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>41</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D47" s="12"/>
     </row>
@@ -2121,10 +1986,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>30</v>
@@ -2135,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>30</v>
@@ -2149,10 +2014,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>30</v>
@@ -2163,10 +2028,10 @@
         <v>31</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>30</v>
@@ -2186,13 +2051,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="35" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D54" s="11"/>
     </row>
@@ -2215,64 +2080,58 @@
         <v>34</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="34" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>213</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D60" s="14"/>
     </row>
@@ -2281,64 +2140,58 @@
         <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D65" s="14"/>
     </row>
@@ -2347,22 +2200,22 @@
         <v>16</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D67" s="14"/>
     </row>
@@ -2371,10 +2224,10 @@
         <v>19</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D68" s="14"/>
     </row>
@@ -2383,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D69" s="14"/>
     </row>
@@ -2395,22 +2248,22 @@
         <v>17</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D71" s="14"/>
     </row>
@@ -2419,22 +2272,22 @@
         <v>29</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D73" s="20"/>
     </row>
@@ -2443,218 +2296,202 @@
         <v>18</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="1:4" s="23" customFormat="1" ht="114" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="23" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="23" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>74</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D81" s="31"/>
     </row>
     <row r="82" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>76</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="22" t="s">
         <v>80</v>
       </c>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>180</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D89" s="24"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D90" s="14"/>
     </row>
@@ -2663,10 +2500,10 @@
         <v>25</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D91" s="14"/>
     </row>
@@ -2675,22 +2512,22 @@
         <v>26</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D93" s="14"/>
     </row>
@@ -2699,10 +2536,10 @@
         <v>22</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D94" s="14"/>
     </row>
@@ -2711,10 +2548,10 @@
         <v>23</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D95" s="14"/>
     </row>
@@ -2723,148 +2560,132 @@
         <v>24</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>199</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D100" s="9"/>
     </row>
     <row r="101" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D102" s="9"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>30</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>30</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D107" s="11"/>
